--- a/docs/final/burndown-charts.xlsx
+++ b/docs/final/burndown-charts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sadmin\Desktop\standups\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\School\Fall 2022\CS 3450\Main Project\frappy\docs\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488D82A6-B3AE-4395-B184-5DC1C38C64BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57F432C-65DF-499F-8387-9115C95E26B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Milestone 1" sheetId="2" r:id="rId1"/>
@@ -19,25 +19,20 @@
     <sheet name="Milestone3.2" sheetId="6" r:id="rId4"/>
     <sheet name="Milestone3.3" sheetId="7" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="what">Milestone3.2!$C$12:$E$12</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
   <si>
     <t>Initial Estimate</t>
   </si>
@@ -82,6 +77,24 @@
   </si>
   <si>
     <t>Total Points:</t>
+  </si>
+  <si>
+    <t>Requirments Gathering</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>High-Level Design</t>
+  </si>
+  <si>
+    <t>Low-Level Design</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -3338,1156 +3351,6 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Milestone</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 3.2</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Milestone3.2!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Planned Hours</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Milestone3.2!$B$8:$T$8</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Milestone3.2!$C$8:$T$8</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>1-Nov</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2-Nov</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3-Nov</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4-Nov</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5-Nov</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6-Nov</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7-Nov</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8-Nov</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9-Nov</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10-Nov</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11-Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12-Nov</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13-Nov</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14-Nov</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15-Nov</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16-Nov</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17-Nov</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18-Nov</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Milestone3.2!$B$9:$T$9</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Milestone3.2!$C$9:$T$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>1.6666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.6666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.6666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.6666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.6666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.6666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6666666666666667</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-895F-464E-A575-AF1108D029D8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Milestone3.2!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Actual Hours</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Milestone3.2!$B$8:$T$8</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Milestone3.2!$C$8:$T$8</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>1-Nov</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2-Nov</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3-Nov</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4-Nov</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5-Nov</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6-Nov</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7-Nov</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8-Nov</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9-Nov</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10-Nov</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11-Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12-Nov</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13-Nov</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14-Nov</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15-Nov</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16-Nov</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17-Nov</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18-Nov</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Milestone3.2!$B$10:$T$10</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Milestone3.2!$C$10:$T$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-895F-464E-A575-AF1108D029D8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="2097231920"/>
-        <c:axId val="69524128"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Milestone3.2!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Remaining Effort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Milestone3.2!$B$8:$T$8</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Milestone3.2!$C$8:$T$8</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>1-Nov</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2-Nov</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3-Nov</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4-Nov</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5-Nov</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6-Nov</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7-Nov</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8-Nov</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9-Nov</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10-Nov</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11-Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12-Nov</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13-Nov</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14-Nov</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15-Nov</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16-Nov</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17-Nov</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18-Nov</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Milestone3.2!$B$11:$T$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Milestone3.2!$C$11:$T$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-895F-464E-A575-AF1108D029D8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Milestone3.2!$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ideal Burndown</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="lgDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Milestone3.2!$B$8:$T$8</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Milestone3.2!$C$8:$T$8</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>1-Nov</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2-Nov</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3-Nov</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4-Nov</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5-Nov</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6-Nov</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7-Nov</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8-Nov</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9-Nov</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10-Nov</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11-Nov</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12-Nov</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13-Nov</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14-Nov</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15-Nov</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16-Nov</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17-Nov</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18-Nov</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Milestone3.2!$B$12:$T$12</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Milestone3.2!$C$12:$T$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>28.333333333333332</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26.666666666666664</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23.333333333333329</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.666666666666661</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19.999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18.333333333333325</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.666666666666657</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14.999999999999991</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13.333333333333325</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.666666666666659</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.9999999999999929</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.3333333333333268</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.6666666666666599</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.9999999999999929</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.3333333333333259</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6666666666666592</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-7.5495165674510645E-15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-895F-464E-A575-AF1108D029D8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2046459152"/>
-        <c:axId val="69504576"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="2046459152"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="69504576"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="69504576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2046459152"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="69524128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:title>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2097231920"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:dateAx>
-        <c:axId val="2097231920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69524128"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5718,46 +4581,6 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7861,522 +6684,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8505,49 +6812,6 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>513753</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133947</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>380777</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>53862</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D71AEE5-1DE1-43F1-B444-386F41C0C209}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10320,10 +8584,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEB9ECB-E51C-4BE8-90E7-4F5475BC515A}">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:CR16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10339,750 +8603,5529 @@
     <col min="12" max="17" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="16">
+        <v>44806</v>
+      </c>
+      <c r="D1" s="16">
+        <v>44807</v>
+      </c>
+      <c r="E1" s="16">
+        <v>44808</v>
+      </c>
+      <c r="F1" s="16">
+        <v>44809</v>
+      </c>
+      <c r="G1" s="16">
+        <v>44810</v>
+      </c>
+      <c r="H1" s="16">
+        <v>44811</v>
+      </c>
+      <c r="I1" s="16">
+        <v>44812</v>
+      </c>
+      <c r="J1" s="16">
+        <v>44813</v>
+      </c>
+      <c r="K1" s="16">
+        <v>44814</v>
+      </c>
+      <c r="L1" s="16">
+        <v>44815</v>
+      </c>
+      <c r="M1" s="16">
+        <v>44816</v>
+      </c>
+      <c r="N1" s="16">
+        <v>44817</v>
+      </c>
+      <c r="O1" s="16">
+        <v>44818</v>
+      </c>
+      <c r="P1" s="16">
+        <v>44819</v>
+      </c>
+      <c r="Q1" s="16">
+        <v>44820</v>
+      </c>
+      <c r="R1" s="16">
+        <v>44821</v>
+      </c>
+      <c r="S1" s="16">
+        <v>44822</v>
+      </c>
+      <c r="T1" s="16">
+        <v>44823</v>
+      </c>
+      <c r="U1" s="16">
+        <v>44824</v>
+      </c>
+      <c r="V1" s="16">
+        <v>44825</v>
+      </c>
+      <c r="W1" s="16">
+        <v>44826</v>
+      </c>
+      <c r="X1" s="16">
+        <v>44827</v>
+      </c>
+      <c r="Y1" s="16">
+        <v>44828</v>
+      </c>
+      <c r="Z1" s="16">
+        <v>44829</v>
+      </c>
+      <c r="AA1" s="16">
+        <v>44830</v>
+      </c>
+      <c r="AB1" s="16">
+        <v>44831</v>
+      </c>
+      <c r="AC1" s="16">
+        <v>44832</v>
+      </c>
+      <c r="AD1" s="16">
+        <v>44833</v>
+      </c>
+      <c r="AE1" s="16">
+        <v>44834</v>
+      </c>
+      <c r="AF1" s="16">
+        <v>44835</v>
+      </c>
+      <c r="AG1" s="16">
+        <v>44836</v>
+      </c>
+      <c r="AH1" s="16">
+        <v>44837</v>
+      </c>
+      <c r="AI1" s="16">
+        <v>44838</v>
+      </c>
+      <c r="AJ1" s="16">
+        <v>44839</v>
+      </c>
+      <c r="AK1" s="16">
+        <v>44840</v>
+      </c>
+      <c r="AL1" s="16">
+        <v>44841</v>
+      </c>
+      <c r="AM1" s="16">
+        <v>44842</v>
+      </c>
+      <c r="AN1" s="16">
+        <v>44843</v>
+      </c>
+      <c r="AO1" s="16">
+        <v>44844</v>
+      </c>
+      <c r="AP1" s="16">
+        <v>44845</v>
+      </c>
+      <c r="AQ1" s="16">
+        <v>44846</v>
+      </c>
+      <c r="AR1" s="16">
+        <v>44847</v>
+      </c>
+      <c r="AS1" s="16">
+        <v>44848</v>
+      </c>
+      <c r="AT1" s="16">
+        <v>44849</v>
+      </c>
+      <c r="AU1" s="16">
+        <v>44850</v>
+      </c>
+      <c r="AV1" s="16">
+        <v>44851</v>
+      </c>
+      <c r="AW1" s="16">
+        <v>44852</v>
+      </c>
+      <c r="AX1" s="16">
+        <v>44853</v>
+      </c>
+      <c r="AY1" s="16">
+        <v>44854</v>
+      </c>
+      <c r="AZ1" s="16">
+        <v>44855</v>
+      </c>
+      <c r="BA1" s="16">
+        <v>44856</v>
+      </c>
+      <c r="BB1" s="16">
+        <v>44857</v>
+      </c>
+      <c r="BC1" s="16">
+        <v>44858</v>
+      </c>
+      <c r="BD1" s="16">
+        <v>44859</v>
+      </c>
+      <c r="BE1" s="16">
+        <v>44860</v>
+      </c>
+      <c r="BF1" s="16">
+        <v>44861</v>
+      </c>
+      <c r="BG1" s="16">
+        <v>44862</v>
+      </c>
+      <c r="BH1" s="16">
+        <v>44863</v>
+      </c>
+      <c r="BI1" s="16">
+        <v>44864</v>
+      </c>
+      <c r="BJ1" s="16">
+        <v>44865</v>
+      </c>
+      <c r="BK1" s="16">
         <v>44866</v>
       </c>
-      <c r="D1" s="16">
+      <c r="BL1" s="16">
         <v>44867</v>
       </c>
-      <c r="E1" s="16">
+      <c r="BM1" s="16">
         <v>44868</v>
       </c>
-      <c r="F1" s="16">
+      <c r="BN1" s="16">
         <v>44869</v>
       </c>
-      <c r="G1" s="16">
+      <c r="BO1" s="16">
         <v>44870</v>
       </c>
-      <c r="H1" s="16">
+      <c r="BP1" s="16">
         <v>44871</v>
       </c>
-      <c r="I1" s="16">
+      <c r="BQ1" s="16">
         <v>44872</v>
       </c>
-      <c r="J1" s="16">
+      <c r="BR1" s="16">
         <v>44873</v>
       </c>
-      <c r="K1" s="16">
+      <c r="BS1" s="16">
         <v>44874</v>
       </c>
-      <c r="L1" s="16">
+      <c r="BT1" s="16">
         <v>44875</v>
       </c>
-      <c r="M1" s="16">
+      <c r="BU1" s="16">
         <v>44876</v>
       </c>
-      <c r="N1" s="16">
+      <c r="BV1" s="16">
         <v>44877</v>
       </c>
-      <c r="O1" s="16">
+      <c r="BW1" s="16">
         <v>44878</v>
       </c>
-      <c r="P1" s="16">
+      <c r="BX1" s="16">
         <v>44879</v>
       </c>
-      <c r="Q1" s="16">
+      <c r="BY1" s="16">
         <v>44880</v>
       </c>
-      <c r="R1" s="16">
+      <c r="BZ1" s="16">
         <v>44881</v>
       </c>
-      <c r="S1" s="16">
+      <c r="CA1" s="16">
         <v>44882</v>
       </c>
-      <c r="T1" s="16">
+      <c r="CB1" s="16">
         <v>44883</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="CC1" s="16">
+        <v>44884</v>
+      </c>
+      <c r="CD1" s="16">
+        <v>44885</v>
+      </c>
+      <c r="CE1" s="16">
+        <v>44886</v>
+      </c>
+      <c r="CF1" s="16">
+        <v>44887</v>
+      </c>
+      <c r="CG1" s="16">
+        <v>44888</v>
+      </c>
+      <c r="CH1" s="16">
+        <v>44889</v>
+      </c>
+      <c r="CI1" s="16">
+        <v>44890</v>
+      </c>
+      <c r="CJ1" s="16">
+        <v>44891</v>
+      </c>
+      <c r="CK1" s="16">
+        <v>44892</v>
+      </c>
+      <c r="CL1" s="16">
+        <v>44893</v>
+      </c>
+      <c r="CM1" s="16">
+        <v>44894</v>
+      </c>
+      <c r="CN1" s="16">
+        <v>44895</v>
+      </c>
+      <c r="CO1" s="16">
+        <v>44896</v>
+      </c>
+      <c r="CP1" s="16">
+        <v>44897</v>
+      </c>
+      <c r="CQ1" s="16">
+        <v>44898</v>
+      </c>
+      <c r="CR1" s="16">
+        <v>44899</v>
+      </c>
+    </row>
+    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5">
+        <v>26</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
         <v>2</v>
       </c>
+      <c r="N2" s="5">
+        <v>6</v>
+      </c>
+      <c r="O2" s="5">
+        <v>7</v>
+      </c>
+      <c r="P2" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>2</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0</v>
+      </c>
+      <c r="T2" s="5">
+        <v>1</v>
+      </c>
+      <c r="U2" s="5">
+        <v>0</v>
+      </c>
+      <c r="V2" s="5">
+        <v>0</v>
+      </c>
+      <c r="W2" s="5">
+        <v>0</v>
+      </c>
+      <c r="X2" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BS2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BT2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BV2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="5">
+        <v>0</v>
+      </c>
+      <c r="CA2" s="5">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="5">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="5">
+        <v>0</v>
+      </c>
+      <c r="CD2" s="5">
+        <v>0</v>
+      </c>
+      <c r="CE2" s="5">
+        <v>0</v>
+      </c>
+      <c r="CF2" s="5">
+        <v>0</v>
+      </c>
+      <c r="CG2" s="5">
+        <v>0</v>
+      </c>
+      <c r="CH2" s="5">
+        <v>0</v>
+      </c>
+      <c r="CI2" s="5">
+        <v>0</v>
+      </c>
+      <c r="CJ2" s="5">
+        <v>0</v>
+      </c>
+      <c r="CK2" s="5">
+        <v>0</v>
+      </c>
+      <c r="CL2" s="5">
+        <v>0</v>
+      </c>
+      <c r="CM2" s="5">
+        <v>0</v>
+      </c>
+      <c r="CN2" s="5">
+        <v>0</v>
+      </c>
+      <c r="CO2" s="5">
+        <v>0</v>
+      </c>
+      <c r="CP2" s="5">
+        <v>0</v>
+      </c>
+      <c r="CQ2" s="5">
+        <v>0</v>
+      </c>
+      <c r="CR2" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>8</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
+        <v>0</v>
+      </c>
+      <c r="U3" s="5">
+        <v>0</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0</v>
+      </c>
+      <c r="W3" s="5">
+        <v>0</v>
+      </c>
+      <c r="X3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BV3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BY3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="5">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="5">
+        <v>0</v>
+      </c>
+      <c r="CB3" s="5">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="5">
+        <v>0</v>
+      </c>
+      <c r="CD3" s="5">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="5">
+        <v>0</v>
+      </c>
+      <c r="CF3" s="5">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="5">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="5">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="5">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="5">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="5">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="5">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="5">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="5">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="5">
+        <v>0</v>
+      </c>
+      <c r="CP3" s="5">
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="5">
+        <v>0</v>
+      </c>
+      <c r="CR3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0</v>
+      </c>
+      <c r="U4" s="5">
+        <v>0</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0</v>
+      </c>
+      <c r="X4" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>5</v>
+      </c>
+      <c r="AK4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="5">
+        <v>6</v>
+      </c>
+      <c r="AP4" s="5">
+        <v>3</v>
+      </c>
+      <c r="AQ4" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR4" s="5">
+        <v>2</v>
+      </c>
+      <c r="AS4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BT4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BV4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BX4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BY4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="5">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="5">
+        <v>0</v>
+      </c>
+      <c r="CB4" s="5">
+        <v>0</v>
+      </c>
+      <c r="CC4" s="5">
+        <v>0</v>
+      </c>
+      <c r="CD4" s="5">
+        <v>0</v>
+      </c>
+      <c r="CE4" s="5">
+        <v>0</v>
+      </c>
+      <c r="CF4" s="5">
+        <v>0</v>
+      </c>
+      <c r="CG4" s="5">
+        <v>0</v>
+      </c>
+      <c r="CH4" s="5">
+        <v>0</v>
+      </c>
+      <c r="CI4" s="5">
+        <v>0</v>
+      </c>
+      <c r="CJ4" s="5">
+        <v>0</v>
+      </c>
+      <c r="CK4" s="5">
+        <v>0</v>
+      </c>
+      <c r="CL4" s="5">
+        <v>0</v>
+      </c>
+      <c r="CM4" s="5">
+        <v>0</v>
+      </c>
+      <c r="CN4" s="5">
+        <v>0</v>
+      </c>
+      <c r="CO4" s="5">
+        <v>0</v>
+      </c>
+      <c r="CP4" s="5">
+        <v>0</v>
+      </c>
+      <c r="CQ4" s="5">
+        <v>0</v>
+      </c>
+      <c r="CR4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5">
+        <v>82</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="5">
+        <v>1</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="5">
+        <v>2</v>
+      </c>
+      <c r="AP5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="5">
+        <v>4</v>
+      </c>
+      <c r="AS5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AT5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="5">
+        <v>4</v>
+      </c>
+      <c r="AY5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="5">
+        <v>2</v>
+      </c>
+      <c r="BA5" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="5">
+        <v>2</v>
+      </c>
+      <c r="BC5" s="5">
+        <v>3</v>
+      </c>
+      <c r="BD5" s="5">
+        <v>1</v>
+      </c>
+      <c r="BE5" s="5">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="5">
+        <v>2</v>
+      </c>
+      <c r="BG5" s="5">
+        <v>10</v>
+      </c>
+      <c r="BH5" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="5">
+        <v>2</v>
+      </c>
+      <c r="BM5" s="5">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="5">
+        <v>7</v>
+      </c>
+      <c r="BO5" s="5">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="5">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="5">
+        <v>4</v>
+      </c>
+      <c r="BR5" s="5">
+        <v>1</v>
+      </c>
+      <c r="BS5" s="5">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="5">
+        <v>2</v>
+      </c>
+      <c r="BU5" s="5">
+        <v>6</v>
+      </c>
+      <c r="BV5" s="5">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="5">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="5">
+        <v>6</v>
+      </c>
+      <c r="BY5" s="5">
+        <v>2</v>
+      </c>
+      <c r="BZ5" s="5">
+        <v>1</v>
+      </c>
+      <c r="CA5" s="5">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="5">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="5">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="5">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="5">
+        <v>4</v>
+      </c>
+      <c r="CF5" s="5">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="5">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="5">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="5">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="5">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="5">
+        <v>0</v>
+      </c>
+      <c r="CL5" s="5">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="5">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="5">
+        <v>2</v>
+      </c>
+      <c r="CO5" s="5">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="5">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="5">
+        <v>0</v>
+      </c>
+      <c r="CR5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="5">
+        <v>3</v>
+      </c>
+      <c r="BD6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="5">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="5">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="5">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="5">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="5">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="5">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="5">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="5">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="5">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="5">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="5">
+        <v>0</v>
+      </c>
+      <c r="CK6" s="5">
+        <v>0</v>
+      </c>
+      <c r="CL6" s="5">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="5">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="5">
+        <v>0</v>
+      </c>
+      <c r="CO6" s="5">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="5">
+        <v>1</v>
+      </c>
+      <c r="CQ6" s="5">
+        <v>0</v>
+      </c>
+      <c r="CR6" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f>B2-C2</f>
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <f>C7-D2</f>
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <f>D7-E2</f>
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <f>E7-F2</f>
+        <v>26</v>
+      </c>
+      <c r="G7">
+        <f>F7-G2</f>
+        <v>26</v>
+      </c>
+      <c r="H7">
+        <f>G7-H2</f>
+        <v>26</v>
+      </c>
+      <c r="I7">
+        <f>H7-I2</f>
+        <v>26</v>
+      </c>
+      <c r="J7">
+        <f>I7-J2</f>
+        <v>26</v>
+      </c>
+      <c r="K7">
+        <f>J7-K2</f>
+        <v>26</v>
+      </c>
+      <c r="L7">
+        <f>K7-L2</f>
+        <v>26</v>
+      </c>
+      <c r="M7">
+        <f>L7-M2</f>
+        <v>24</v>
+      </c>
+      <c r="N7">
+        <f>M7-N2</f>
+        <v>18</v>
+      </c>
+      <c r="O7">
+        <f>N7-O2</f>
         <v>11</v>
       </c>
-      <c r="B2" s="5">
-        <v>7.5</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
+      <c r="P7">
+        <f>O7-P2</f>
+        <v>8</v>
+      </c>
+      <c r="Q7">
+        <f>P7-Q2</f>
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <f>Q7-R2</f>
+        <v>6</v>
+      </c>
+      <c r="S7">
+        <f>R7-S2</f>
+        <v>6</v>
+      </c>
+      <c r="T7">
+        <f>S7-T2</f>
+        <v>5</v>
+      </c>
+      <c r="U7">
+        <f>T7-U2</f>
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <f>U7-V2</f>
+        <v>5</v>
+      </c>
+      <c r="W7">
+        <f>V7-W2</f>
+        <v>5</v>
+      </c>
+      <c r="X7">
+        <f>W7-X2</f>
+        <v>3</v>
+      </c>
+      <c r="Y7">
+        <f>X7-Y2</f>
+        <v>3</v>
+      </c>
+      <c r="Z7">
+        <f>Y7-Z2</f>
+        <v>3</v>
+      </c>
+      <c r="AA7">
+        <f>Z7-AA2</f>
+        <v>3</v>
+      </c>
+      <c r="AB7">
+        <f>AA7-AB2</f>
+        <v>3</v>
+      </c>
+      <c r="AC7">
+        <f>AB7-AC2</f>
+        <v>3</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" ref="AD7:CO8" si="0">AC7-AD2</f>
+        <v>3</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K2" s="5">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5">
-        <v>3</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-      <c r="O2" s="5">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>0</v>
-      </c>
-      <c r="R2" s="5">
-        <v>0</v>
-      </c>
-      <c r="S2" s="5">
-        <v>0</v>
-      </c>
-      <c r="T2" s="5">
-        <v>0</v>
-      </c>
-      <c r="U2" s="10">
-        <f>B2-(SUM(C2:T2))</f>
-        <v>3.25</v>
+      <c r="AH7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BY7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="CM7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="CN7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="CO7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="CP7">
+        <f t="shared" ref="CP7:CR8" si="1">CO7-CP2</f>
+        <v>0</v>
+      </c>
+      <c r="CQ7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="8" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f>B3-C3</f>
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <f>C8-D3</f>
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <f>D8-E3</f>
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:BQ8" si="2">E8-F3</f>
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <f t="shared" ref="BR8:CR8" si="3">BQ8-BR3</f>
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BW8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BX8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BY8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BZ8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CA8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CD8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CE8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CF8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CG8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CI8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CJ8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CK8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CL8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CM8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CN8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CO8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CP8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CQ8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CR8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f>B4-C4</f>
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <f>C9-D4</f>
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <f>D9-E4</f>
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:BQ9" si="4">E9-F4</f>
+        <v>27</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="AM9">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="AO9">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="AP9">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AQ9">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AR9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <f t="shared" ref="BR9:CR9" si="5">BQ9-BR4</f>
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BW9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BX9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BY9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BZ9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CA9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CB9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CC9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CD9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CE9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CG9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CH9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CI9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CJ9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CK9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CL9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CN9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CO9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CP9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CQ9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>B5-C5</f>
+        <v>82</v>
+      </c>
+      <c r="D10">
+        <f>C10-D5</f>
+        <v>82</v>
+      </c>
+      <c r="E10">
+        <f>D10-E5</f>
+        <v>82</v>
+      </c>
+      <c r="F10">
+        <f>E10-F5</f>
+        <v>82</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10:BQ10" si="6">F10-G5</f>
+        <v>82</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="L10">
+        <f>K10-L5</f>
+        <v>82</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="AM10">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="AQ10">
+        <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="AR10">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="AS10">
+        <f t="shared" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="AT10">
+        <f t="shared" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="AU10">
+        <f t="shared" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="AV10">
+        <f t="shared" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="AW10">
+        <f t="shared" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="AX10">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="AY10">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="AZ10">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="BA10">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="BB10">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="BC10">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="BD10">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="BE10">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="BF10">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="BG10">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="BH10">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="BI10">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="BJ10">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="BK10">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="BL10">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="BM10">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="BN10">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="BO10">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="BP10">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="BQ10">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="BR10">
+        <f t="shared" ref="BR10:CR10" si="7">BQ10-BR5</f>
+        <v>23</v>
+      </c>
+      <c r="BS10">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="BT10">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="BU10">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="BV10">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="BW10">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="BX10">
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="B3" s="7">
-        <v>7.5</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5">
+      <c r="BY10">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="BZ10">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="CA10">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="CB10">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="CC10">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="CD10">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="CE10">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="Q3" s="5">
-        <v>0</v>
-      </c>
-      <c r="R3" s="5">
-        <v>1</v>
-      </c>
-      <c r="S3" s="5">
-        <v>0</v>
-      </c>
-      <c r="T3" s="5">
-        <v>0</v>
-      </c>
-      <c r="U3" s="10">
-        <f>B3-(SUM(C3:T3))</f>
-        <v>4.25</v>
+      <c r="CF10">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="CG10">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="CH10">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="CI10">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="CJ10">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="CK10">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="CL10">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="CM10">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="CN10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="CO10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="CP10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="CQ10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="CR10">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5">
-        <v>7.5</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="D4" s="5">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>0</v>
-      </c>
-      <c r="R4" s="5">
-        <v>0</v>
-      </c>
-      <c r="S4" s="5">
-        <v>0</v>
-      </c>
-      <c r="T4" s="5">
-        <v>0</v>
-      </c>
-      <c r="U4" s="10">
-        <f t="shared" ref="U4:U5" si="0">B4-(SUM(C4:T4))</f>
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="11" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>B6-C6</f>
         <v>10</v>
       </c>
-      <c r="B5" s="7">
-        <v>7.5</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>3</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>2</v>
-      </c>
-      <c r="M5" s="5">
-        <v>3</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>1</v>
-      </c>
-      <c r="R5" s="5">
-        <v>0</v>
-      </c>
-      <c r="S5" s="5">
-        <v>0</v>
-      </c>
-      <c r="T5" s="5">
-        <v>0</v>
-      </c>
-      <c r="U5" s="10">
-        <f t="shared" si="0"/>
-        <v>-5.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="D11">
+        <f>C11-D6</f>
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <f>D11-E6</f>
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:BQ11" si="8">E11-F6</f>
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AM11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AO11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AP11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AQ11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AR11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AS11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AT11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AU11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AV11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AW11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AX11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AY11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AZ11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="BA11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="BB11">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="BC11">
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="16">
-        <f t="shared" ref="C8:L8" si="1">C1</f>
-        <v>44866</v>
-      </c>
-      <c r="D8" s="16">
-        <f t="shared" si="1"/>
-        <v>44867</v>
-      </c>
-      <c r="E8" s="16">
-        <f t="shared" si="1"/>
-        <v>44868</v>
-      </c>
-      <c r="F8" s="16">
-        <f t="shared" si="1"/>
-        <v>44869</v>
-      </c>
-      <c r="G8" s="16">
-        <f t="shared" si="1"/>
-        <v>44870</v>
-      </c>
-      <c r="H8" s="16">
-        <f t="shared" si="1"/>
-        <v>44871</v>
-      </c>
-      <c r="I8" s="16">
-        <f t="shared" si="1"/>
-        <v>44872</v>
-      </c>
-      <c r="J8" s="16">
-        <f t="shared" si="1"/>
-        <v>44873</v>
-      </c>
-      <c r="K8" s="16">
-        <f t="shared" si="1"/>
-        <v>44874</v>
-      </c>
-      <c r="L8" s="16">
-        <f t="shared" si="1"/>
-        <v>44875</v>
-      </c>
-      <c r="M8" s="16">
-        <f t="shared" ref="M8:Q8" si="2">M1</f>
-        <v>44876</v>
-      </c>
-      <c r="N8" s="16">
-        <f t="shared" si="2"/>
-        <v>44877</v>
-      </c>
-      <c r="O8" s="16">
-        <f t="shared" si="2"/>
-        <v>44878</v>
-      </c>
-      <c r="P8" s="16">
-        <f t="shared" si="2"/>
-        <v>44879</v>
-      </c>
-      <c r="Q8" s="16">
-        <f t="shared" si="2"/>
-        <v>44880</v>
-      </c>
-      <c r="R8" s="16">
-        <f t="shared" ref="R8:T8" si="3">R1</f>
-        <v>44881</v>
-      </c>
-      <c r="S8" s="16">
-        <f t="shared" si="3"/>
-        <v>44882</v>
-      </c>
-      <c r="T8" s="16">
-        <f t="shared" si="3"/>
-        <v>44883</v>
-      </c>
-      <c r="U8" s="16"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5">
-        <f>SUM($B$2:$B$5)/18</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="D9" s="5">
-        <f t="shared" ref="D9:T9" si="4">SUM($B$2:$B$5)/18</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="4"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="4"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="G9" s="5">
-        <f t="shared" si="4"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" si="4"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="I9" s="5">
-        <f t="shared" si="4"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="J9" s="5">
-        <f t="shared" si="4"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="K9" s="5">
-        <f t="shared" si="4"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="L9" s="5">
-        <f t="shared" si="4"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="M9" s="5">
-        <f t="shared" si="4"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="N9" s="5">
-        <f t="shared" si="4"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="O9" s="5">
-        <f t="shared" si="4"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="P9" s="5">
-        <f t="shared" si="4"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="Q9" s="5">
-        <f t="shared" si="4"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="R9" s="5">
-        <f t="shared" si="4"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="S9" s="5">
-        <f t="shared" si="4"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="T9" s="5">
-        <f t="shared" si="4"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="U9" s="5"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <f>SUM(C2:C5)</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <f t="shared" ref="D10:K10" si="5">SUM(D2:D5)</f>
-        <v>2</v>
-      </c>
-      <c r="E10" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="G10" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="8">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="K10" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="8">
-        <f>SUM(L2:L5)</f>
-        <v>2</v>
-      </c>
-      <c r="M10" s="8">
-        <f t="shared" ref="M10:Q10" si="6">SUM(M2:M5)</f>
-        <v>6</v>
-      </c>
-      <c r="N10" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="8">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="Q10" s="8">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="R10" s="8">
-        <f t="shared" ref="R10:T10" si="7">SUM(R2:R5)</f>
-        <v>1</v>
-      </c>
-      <c r="S10" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U10" s="8"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5">
-        <f>B14</f>
-        <v>30</v>
-      </c>
-      <c r="C11" s="5">
-        <f>B11-C10</f>
-        <v>29</v>
-      </c>
-      <c r="D11" s="5">
-        <f t="shared" ref="D11:I11" si="8">C11-D10</f>
-        <v>27</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="BD11">
         <f t="shared" si="8"/>
-        <v>27</v>
-      </c>
-      <c r="F11" s="5">
+        <v>7</v>
+      </c>
+      <c r="BE11">
         <f t="shared" si="8"/>
-        <v>22</v>
-      </c>
-      <c r="G11" s="5">
+        <v>7</v>
+      </c>
+      <c r="BF11">
         <f t="shared" si="8"/>
-        <v>22</v>
-      </c>
-      <c r="H11" s="5">
+        <v>7</v>
+      </c>
+      <c r="BG11">
         <f t="shared" si="8"/>
-        <v>22</v>
-      </c>
-      <c r="I11" s="5">
+        <v>7</v>
+      </c>
+      <c r="BH11">
         <f t="shared" si="8"/>
-        <v>22</v>
-      </c>
-      <c r="J11" s="5">
-        <f>I11-J10</f>
-        <v>21</v>
-      </c>
-      <c r="K11" s="5">
-        <f>J11-K10</f>
-        <v>21</v>
-      </c>
-      <c r="L11" s="5">
-        <f>K11-L10</f>
-        <v>19</v>
-      </c>
-      <c r="M11" s="5">
-        <f t="shared" ref="M11:Q11" si="9">L11-M10</f>
-        <v>13</v>
-      </c>
-      <c r="N11" s="5">
-        <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="O11" s="5">
-        <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="P11" s="5">
+        <v>7</v>
+      </c>
+      <c r="BI11">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="BJ11">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="BK11">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="BL11">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="BM11">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="BN11">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="BO11">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="BP11">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="BQ11">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="BR11">
+        <f t="shared" ref="BR11:CR11" si="9">BQ11-BR6</f>
+        <v>7</v>
+      </c>
+      <c r="BS11">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="BT11">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="BU11">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="BV11">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="BW11">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="BX11">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="BY11">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="BZ11">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="CA11">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="CB11">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="CC11">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="CD11">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="CE11">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="CF11">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="CG11">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="CH11">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="CI11">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="CJ11">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="CK11">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="CL11">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="CM11">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="CN11">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="CO11">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="CP11">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="R11" s="5">
-        <f t="shared" ref="R11" si="10">Q11-R10</f>
-        <v>5</v>
-      </c>
-      <c r="S11" s="5">
-        <f t="shared" ref="S11" si="11">R11-S10</f>
-        <v>5</v>
-      </c>
-      <c r="T11" s="5">
-        <f t="shared" ref="T11" si="12">S11-T10</f>
-        <v>5</v>
-      </c>
-      <c r="U11" s="5"/>
+      <c r="CQ11">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="CR11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="5">
-        <f>B14</f>
-        <v>30</v>
-      </c>
-      <c r="C12" s="1">
-        <f>B12-C9</f>
-        <v>28.333333333333332</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" ref="D12:T12" si="13">C12-D9</f>
-        <v>26.666666666666664</v>
-      </c>
-      <c r="E12" s="1">
+    <row r="12" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f>B2 - (26 / 94)</f>
+        <v>25.723404255319149</v>
+      </c>
+      <c r="D12">
+        <f>C12 - (26 / 94)</f>
+        <v>25.446808510638299</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:P12" si="10">D12 - (26 / 94)</f>
+        <v>25.170212765957448</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="10"/>
+        <v>24.893617021276597</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="10"/>
+        <v>24.617021276595747</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="10"/>
+        <v>24.340425531914896</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="10"/>
+        <v>24.063829787234045</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="10"/>
+        <v>23.787234042553195</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="10"/>
+        <v>23.510638297872344</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="10"/>
+        <v>23.234042553191493</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="10"/>
+        <v>22.957446808510642</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="10"/>
+        <v>22.680851063829792</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="10"/>
+        <v>22.404255319148941</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="10"/>
+        <v>22.12765957446809</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" ref="Q12:CB12" si="11">P12 - (26 / 94)</f>
+        <v>21.85106382978724</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="11"/>
+        <v>21.574468085106389</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="11"/>
+        <v>21.297872340425538</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="11"/>
+        <v>21.021276595744688</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="11"/>
+        <v>20.744680851063837</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="11"/>
+        <v>20.468085106382986</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="11"/>
+        <v>20.191489361702136</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="11"/>
+        <v>19.914893617021285</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="11"/>
+        <v>19.638297872340434</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="11"/>
+        <v>19.361702127659584</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="11"/>
+        <v>19.085106382978733</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="11"/>
+        <v>18.808510638297882</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="11"/>
+        <v>18.531914893617031</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="11"/>
+        <v>18.255319148936181</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="11"/>
+        <v>17.97872340425533</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="11"/>
+        <v>17.702127659574479</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="11"/>
+        <v>17.425531914893629</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="11"/>
+        <v>17.148936170212778</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="11"/>
+        <v>16.872340425531927</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="11"/>
+        <v>16.595744680851077</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="11"/>
+        <v>16.319148936170226</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" si="11"/>
+        <v>16.042553191489375</v>
+      </c>
+      <c r="AM12">
+        <f t="shared" si="11"/>
+        <v>15.765957446808525</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="11"/>
+        <v>15.489361702127674</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" si="11"/>
+        <v>15.212765957446823</v>
+      </c>
+      <c r="AP12">
+        <f t="shared" si="11"/>
+        <v>14.936170212765973</v>
+      </c>
+      <c r="AQ12">
+        <f t="shared" si="11"/>
+        <v>14.659574468085122</v>
+      </c>
+      <c r="AR12">
+        <f t="shared" si="11"/>
+        <v>14.382978723404271</v>
+      </c>
+      <c r="AS12">
+        <f t="shared" si="11"/>
+        <v>14.106382978723421</v>
+      </c>
+      <c r="AT12">
+        <f t="shared" si="11"/>
+        <v>13.82978723404257</v>
+      </c>
+      <c r="AU12">
+        <f t="shared" si="11"/>
+        <v>13.553191489361719</v>
+      </c>
+      <c r="AV12">
+        <f t="shared" si="11"/>
+        <v>13.276595744680868</v>
+      </c>
+      <c r="AW12">
+        <f t="shared" si="11"/>
+        <v>13.000000000000018</v>
+      </c>
+      <c r="AX12">
+        <f t="shared" si="11"/>
+        <v>12.723404255319167</v>
+      </c>
+      <c r="AY12">
+        <f t="shared" si="11"/>
+        <v>12.446808510638316</v>
+      </c>
+      <c r="AZ12">
+        <f t="shared" si="11"/>
+        <v>12.170212765957466</v>
+      </c>
+      <c r="BA12">
+        <f t="shared" si="11"/>
+        <v>11.893617021276615</v>
+      </c>
+      <c r="BB12">
+        <f t="shared" si="11"/>
+        <v>11.617021276595764</v>
+      </c>
+      <c r="BC12">
+        <f t="shared" si="11"/>
+        <v>11.340425531914914</v>
+      </c>
+      <c r="BD12">
+        <f t="shared" si="11"/>
+        <v>11.063829787234063</v>
+      </c>
+      <c r="BE12">
+        <f t="shared" si="11"/>
+        <v>10.787234042553212</v>
+      </c>
+      <c r="BF12">
+        <f t="shared" si="11"/>
+        <v>10.510638297872362</v>
+      </c>
+      <c r="BG12">
+        <f t="shared" si="11"/>
+        <v>10.234042553191511</v>
+      </c>
+      <c r="BH12">
+        <f t="shared" si="11"/>
+        <v>9.9574468085106602</v>
+      </c>
+      <c r="BI12">
+        <f t="shared" si="11"/>
+        <v>9.6808510638298095</v>
+      </c>
+      <c r="BJ12">
+        <f t="shared" si="11"/>
+        <v>9.4042553191489588</v>
+      </c>
+      <c r="BK12">
+        <f t="shared" si="11"/>
+        <v>9.1276595744681082</v>
+      </c>
+      <c r="BL12">
+        <f t="shared" si="11"/>
+        <v>8.8510638297872575</v>
+      </c>
+      <c r="BM12">
+        <f t="shared" si="11"/>
+        <v>8.5744680851064068</v>
+      </c>
+      <c r="BN12">
+        <f t="shared" si="11"/>
+        <v>8.2978723404255561</v>
+      </c>
+      <c r="BO12">
+        <f t="shared" si="11"/>
+        <v>8.0212765957447054</v>
+      </c>
+      <c r="BP12">
+        <f t="shared" si="11"/>
+        <v>7.7446808510638547</v>
+      </c>
+      <c r="BQ12">
+        <f t="shared" si="11"/>
+        <v>7.468085106383004</v>
+      </c>
+      <c r="BR12">
+        <f t="shared" si="11"/>
+        <v>7.1914893617021534</v>
+      </c>
+      <c r="BS12">
+        <f t="shared" si="11"/>
+        <v>6.9148936170213027</v>
+      </c>
+      <c r="BT12">
+        <f t="shared" si="11"/>
+        <v>6.638297872340452</v>
+      </c>
+      <c r="BU12">
+        <f t="shared" si="11"/>
+        <v>6.3617021276596013</v>
+      </c>
+      <c r="BV12">
+        <f t="shared" si="11"/>
+        <v>6.0851063829787506</v>
+      </c>
+      <c r="BW12">
+        <f t="shared" si="11"/>
+        <v>5.8085106382978999</v>
+      </c>
+      <c r="BX12">
+        <f t="shared" si="11"/>
+        <v>5.5319148936170492</v>
+      </c>
+      <c r="BY12">
+        <f t="shared" si="11"/>
+        <v>5.2553191489361986</v>
+      </c>
+      <c r="BZ12">
+        <f t="shared" si="11"/>
+        <v>4.9787234042553479</v>
+      </c>
+      <c r="CA12">
+        <f t="shared" si="11"/>
+        <v>4.7021276595744972</v>
+      </c>
+      <c r="CB12">
+        <f t="shared" si="11"/>
+        <v>4.4255319148936465</v>
+      </c>
+      <c r="CC12">
+        <f t="shared" ref="CC12:CR12" si="12">CB12 - (26 / 94)</f>
+        <v>4.1489361702127958</v>
+      </c>
+      <c r="CD12">
+        <f t="shared" si="12"/>
+        <v>3.8723404255319447</v>
+      </c>
+      <c r="CE12">
+        <f t="shared" si="12"/>
+        <v>3.5957446808510936</v>
+      </c>
+      <c r="CF12">
+        <f t="shared" si="12"/>
+        <v>3.3191489361702424</v>
+      </c>
+      <c r="CG12">
+        <f t="shared" si="12"/>
+        <v>3.0425531914893913</v>
+      </c>
+      <c r="CH12">
+        <f t="shared" si="12"/>
+        <v>2.7659574468085402</v>
+      </c>
+      <c r="CI12">
+        <f t="shared" si="12"/>
+        <v>2.489361702127689</v>
+      </c>
+      <c r="CJ12">
+        <f t="shared" si="12"/>
+        <v>2.2127659574468379</v>
+      </c>
+      <c r="CK12">
+        <f t="shared" si="12"/>
+        <v>1.9361702127659868</v>
+      </c>
+      <c r="CL12">
+        <f t="shared" si="12"/>
+        <v>1.6595744680851356</v>
+      </c>
+      <c r="CM12">
+        <f t="shared" si="12"/>
+        <v>1.3829787234042845</v>
+      </c>
+      <c r="CN12">
+        <f t="shared" si="12"/>
+        <v>1.1063829787234334</v>
+      </c>
+      <c r="CO12">
+        <f t="shared" si="12"/>
+        <v>0.82978723404258226</v>
+      </c>
+      <c r="CP12">
+        <f t="shared" si="12"/>
+        <v>0.55319148936173113</v>
+      </c>
+      <c r="CQ12">
+        <f t="shared" si="12"/>
+        <v>0.27659574468088005</v>
+      </c>
+      <c r="CR12">
+        <f t="shared" si="12"/>
+        <v>2.8976820942716586E-14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f>B3 -  (19 / 84)</f>
+        <v>18.773809523809526</v>
+      </c>
+      <c r="D13">
+        <f>C13 - (19 / 94)</f>
+        <v>18.571681864235057</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:BP13" si="13">D13 - (19 / 94)</f>
+        <v>18.369554204660588</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="13"/>
-        <v>24.999999999999996</v>
-      </c>
-      <c r="F12" s="1">
+        <v>18.167426545086119</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="13"/>
-        <v>23.333333333333329</v>
-      </c>
-      <c r="G12" s="1">
+        <v>17.96529888551165</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="13"/>
-        <v>21.666666666666661</v>
-      </c>
-      <c r="H12" s="1">
+        <v>17.763171225937182</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="13"/>
-        <v>19.999999999999993</v>
-      </c>
-      <c r="I12" s="1">
+        <v>17.561043566362713</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="13"/>
-        <v>18.333333333333325</v>
-      </c>
-      <c r="J12" s="1">
+        <v>17.358915906788244</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="13"/>
-        <v>16.666666666666657</v>
-      </c>
-      <c r="K12" s="1">
+        <v>17.156788247213775</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="13"/>
-        <v>14.999999999999991</v>
-      </c>
-      <c r="L12" s="1">
+        <v>16.954660587639307</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="13"/>
-        <v>13.333333333333325</v>
-      </c>
-      <c r="M12" s="1">
+        <v>16.752532928064838</v>
+      </c>
+      <c r="N13">
         <f t="shared" si="13"/>
-        <v>11.666666666666659</v>
-      </c>
-      <c r="N12" s="1">
+        <v>16.550405268490369</v>
+      </c>
+      <c r="O13">
         <f t="shared" si="13"/>
-        <v>9.9999999999999929</v>
-      </c>
-      <c r="O12" s="1">
+        <v>16.3482776089159</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="13"/>
-        <v>8.3333333333333268</v>
-      </c>
-      <c r="P12" s="1">
+        <v>16.146149949341432</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="13"/>
-        <v>6.6666666666666599</v>
-      </c>
-      <c r="Q12" s="1">
+        <v>15.944022289766963</v>
+      </c>
+      <c r="R13">
         <f t="shared" si="13"/>
-        <v>4.9999999999999929</v>
-      </c>
-      <c r="R12" s="1">
+        <v>15.741894630192494</v>
+      </c>
+      <c r="S13">
         <f t="shared" si="13"/>
-        <v>3.3333333333333259</v>
-      </c>
-      <c r="S12" s="1">
+        <v>15.539766970618025</v>
+      </c>
+      <c r="T13">
         <f t="shared" si="13"/>
-        <v>1.6666666666666592</v>
-      </c>
-      <c r="T12" s="1">
+        <v>15.337639311043556</v>
+      </c>
+      <c r="U13">
         <f t="shared" si="13"/>
-        <v>-7.5495165674510645E-15</v>
-      </c>
-      <c r="U12" s="1"/>
+        <v>15.135511651469088</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="13"/>
+        <v>14.933383991894619</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="13"/>
+        <v>14.73125633232015</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="13"/>
+        <v>14.529128672745681</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="13"/>
+        <v>14.327001013171213</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="13"/>
+        <v>14.124873353596744</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="13"/>
+        <v>13.922745694022275</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="13"/>
+        <v>13.720618034447806</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="13"/>
+        <v>13.518490374873338</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="13"/>
+        <v>13.316362715298869</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="13"/>
+        <v>13.1142350557244</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="13"/>
+        <v>12.912107396149931</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="13"/>
+        <v>12.709979736575463</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="13"/>
+        <v>12.507852077000994</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="13"/>
+        <v>12.305724417426525</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="13"/>
+        <v>12.103596757852056</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="13"/>
+        <v>11.901469098277587</v>
+      </c>
+      <c r="AL13">
+        <f t="shared" si="13"/>
+        <v>11.699341438703119</v>
+      </c>
+      <c r="AM13">
+        <f t="shared" si="13"/>
+        <v>11.49721377912865</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="13"/>
+        <v>11.295086119554181</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="13"/>
+        <v>11.092958459979712</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="13"/>
+        <v>10.890830800405244</v>
+      </c>
+      <c r="AQ13">
+        <f t="shared" si="13"/>
+        <v>10.688703140830775</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" si="13"/>
+        <v>10.486575481256306</v>
+      </c>
+      <c r="AS13">
+        <f t="shared" si="13"/>
+        <v>10.284447821681837</v>
+      </c>
+      <c r="AT13">
+        <f t="shared" si="13"/>
+        <v>10.082320162107369</v>
+      </c>
+      <c r="AU13">
+        <f t="shared" si="13"/>
+        <v>9.8801925025328998</v>
+      </c>
+      <c r="AV13">
+        <f t="shared" si="13"/>
+        <v>9.6780648429584311</v>
+      </c>
+      <c r="AW13">
+        <f t="shared" si="13"/>
+        <v>9.4759371833839623</v>
+      </c>
+      <c r="AX13">
+        <f t="shared" si="13"/>
+        <v>9.2738095238094935</v>
+      </c>
+      <c r="AY13">
+        <f t="shared" si="13"/>
+        <v>9.0716818642350248</v>
+      </c>
+      <c r="AZ13">
+        <f t="shared" si="13"/>
+        <v>8.869554204660556</v>
+      </c>
+      <c r="BA13">
+        <f t="shared" si="13"/>
+        <v>8.6674265450860872</v>
+      </c>
+      <c r="BB13">
+        <f t="shared" si="13"/>
+        <v>8.4652988855116185</v>
+      </c>
+      <c r="BC13">
+        <f t="shared" si="13"/>
+        <v>8.2631712259371497</v>
+      </c>
+      <c r="BD13">
+        <f t="shared" si="13"/>
+        <v>8.0610435663626809</v>
+      </c>
+      <c r="BE13">
+        <f t="shared" si="13"/>
+        <v>7.8589159067882131</v>
+      </c>
+      <c r="BF13">
+        <f t="shared" si="13"/>
+        <v>7.6567882472137452</v>
+      </c>
+      <c r="BG13">
+        <f t="shared" si="13"/>
+        <v>7.4546605876392773</v>
+      </c>
+      <c r="BH13">
+        <f t="shared" si="13"/>
+        <v>7.2525329280648094</v>
+      </c>
+      <c r="BI13">
+        <f t="shared" si="13"/>
+        <v>7.0504052684903415</v>
+      </c>
+      <c r="BJ13">
+        <f t="shared" si="13"/>
+        <v>6.8482776089158737</v>
+      </c>
+      <c r="BK13">
+        <f t="shared" si="13"/>
+        <v>6.6461499493414058</v>
+      </c>
+      <c r="BL13">
+        <f t="shared" si="13"/>
+        <v>6.4440222897669379</v>
+      </c>
+      <c r="BM13">
+        <f t="shared" si="13"/>
+        <v>6.24189463019247</v>
+      </c>
+      <c r="BN13">
+        <f t="shared" si="13"/>
+        <v>6.0397669706180022</v>
+      </c>
+      <c r="BO13">
+        <f t="shared" si="13"/>
+        <v>5.8376393110435343</v>
+      </c>
+      <c r="BP13">
+        <f t="shared" si="13"/>
+        <v>5.6355116514690664</v>
+      </c>
+      <c r="BQ13">
+        <f t="shared" ref="BQ13:CR13" si="14">BP13 - (19 / 94)</f>
+        <v>5.4333839918945985</v>
+      </c>
+      <c r="BR13">
+        <f t="shared" si="14"/>
+        <v>5.2312563323201307</v>
+      </c>
+      <c r="BS13">
+        <f t="shared" si="14"/>
+        <v>5.0291286727456628</v>
+      </c>
+      <c r="BT13">
+        <f t="shared" si="14"/>
+        <v>4.8270010131711949</v>
+      </c>
+      <c r="BU13">
+        <f t="shared" si="14"/>
+        <v>4.624873353596727</v>
+      </c>
+      <c r="BV13">
+        <f t="shared" si="14"/>
+        <v>4.4227456940222591</v>
+      </c>
+      <c r="BW13">
+        <f t="shared" si="14"/>
+        <v>4.2206180344477913</v>
+      </c>
+      <c r="BX13">
+        <f t="shared" si="14"/>
+        <v>4.0184903748733234</v>
+      </c>
+      <c r="BY13">
+        <f t="shared" si="14"/>
+        <v>3.8163627152988555</v>
+      </c>
+      <c r="BZ13">
+        <f t="shared" si="14"/>
+        <v>3.6142350557243876</v>
+      </c>
+      <c r="CA13">
+        <f t="shared" si="14"/>
+        <v>3.4121073961499198</v>
+      </c>
+      <c r="CB13">
+        <f t="shared" si="14"/>
+        <v>3.2099797365754519</v>
+      </c>
+      <c r="CC13">
+        <f t="shared" si="14"/>
+        <v>3.007852077000984</v>
+      </c>
+      <c r="CD13">
+        <f t="shared" si="14"/>
+        <v>2.8057244174265161</v>
+      </c>
+      <c r="CE13">
+        <f t="shared" si="14"/>
+        <v>2.6035967578520482</v>
+      </c>
+      <c r="CF13">
+        <f t="shared" si="14"/>
+        <v>2.4014690982775804</v>
+      </c>
+      <c r="CG13">
+        <f t="shared" si="14"/>
+        <v>2.1993414387031125</v>
+      </c>
+      <c r="CH13">
+        <f t="shared" si="14"/>
+        <v>1.9972137791286444</v>
+      </c>
+      <c r="CI13">
+        <f t="shared" si="14"/>
+        <v>1.7950861195541763</v>
+      </c>
+      <c r="CJ13">
+        <f t="shared" si="14"/>
+        <v>1.5929584599797082</v>
+      </c>
+      <c r="CK13">
+        <f t="shared" si="14"/>
+        <v>1.3908308004052401</v>
+      </c>
+      <c r="CL13">
+        <f t="shared" si="14"/>
+        <v>1.188703140830772</v>
+      </c>
+      <c r="CM13">
+        <f t="shared" si="14"/>
+        <v>0.9865754812563039</v>
+      </c>
+      <c r="CN13">
+        <f t="shared" si="14"/>
+        <v>0.7844478216818358</v>
+      </c>
+      <c r="CO13">
+        <f t="shared" si="14"/>
+        <v>0.5823201621073677</v>
+      </c>
+      <c r="CP13">
+        <f t="shared" si="14"/>
+        <v>0.3801925025328996</v>
+      </c>
+      <c r="CQ13">
+        <f t="shared" si="14"/>
+        <v>0.17806484295843153</v>
+      </c>
+      <c r="CR13">
+        <f t="shared" si="14"/>
+        <v>-2.4062816616036542E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="5">
-        <v>30</v>
+    <row r="14" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f>B4 - (27 / 84)</f>
+        <v>26.678571428571427</v>
+      </c>
+      <c r="D14">
+        <f xml:space="preserve"> C14 - (27 / 94)</f>
+        <v>26.391337386018236</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:P14" si="15" xml:space="preserve"> D14 - (27 / 94)</f>
+        <v>26.104103343465045</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="15"/>
+        <v>25.816869300911854</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="15"/>
+        <v>25.529635258358663</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="15"/>
+        <v>25.242401215805472</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="15"/>
+        <v>24.955167173252281</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="15"/>
+        <v>24.66793313069909</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="15"/>
+        <v>24.380699088145899</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="15"/>
+        <v>24.093465045592708</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="15"/>
+        <v>23.806231003039517</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="15"/>
+        <v>23.518996960486326</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="15"/>
+        <v>23.231762917933136</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="15"/>
+        <v>22.944528875379945</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ref="Q14:CB14" si="16" xml:space="preserve"> P14 - (27 / 94)</f>
+        <v>22.657294832826754</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="16"/>
+        <v>22.370060790273563</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="16"/>
+        <v>22.082826747720372</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="16"/>
+        <v>21.795592705167181</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="16"/>
+        <v>21.50835866261399</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="16"/>
+        <v>21.221124620060799</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="16"/>
+        <v>20.933890577507608</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="16"/>
+        <v>20.646656534954417</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="16"/>
+        <v>20.359422492401226</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="16"/>
+        <v>20.072188449848035</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="16"/>
+        <v>19.784954407294844</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="16"/>
+        <v>19.497720364741653</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="16"/>
+        <v>19.210486322188462</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="16"/>
+        <v>18.923252279635271</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="16"/>
+        <v>18.63601823708208</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="16"/>
+        <v>18.348784194528889</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="16"/>
+        <v>18.061550151975698</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="16"/>
+        <v>17.774316109422507</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="16"/>
+        <v>17.487082066869316</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="16"/>
+        <v>17.199848024316125</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="16"/>
+        <v>16.912613981762934</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="16"/>
+        <v>16.625379939209743</v>
+      </c>
+      <c r="AM14">
+        <f t="shared" si="16"/>
+        <v>16.338145896656552</v>
+      </c>
+      <c r="AN14">
+        <f t="shared" si="16"/>
+        <v>16.050911854103362</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" si="16"/>
+        <v>15.763677811550171</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="16"/>
+        <v>15.47644376899698</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="16"/>
+        <v>15.189209726443789</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" si="16"/>
+        <v>14.901975683890598</v>
+      </c>
+      <c r="AS14">
+        <f t="shared" si="16"/>
+        <v>14.614741641337407</v>
+      </c>
+      <c r="AT14">
+        <f t="shared" si="16"/>
+        <v>14.327507598784216</v>
+      </c>
+      <c r="AU14">
+        <f t="shared" si="16"/>
+        <v>14.040273556231025</v>
+      </c>
+      <c r="AV14">
+        <f t="shared" si="16"/>
+        <v>13.753039513677834</v>
+      </c>
+      <c r="AW14">
+        <f t="shared" si="16"/>
+        <v>13.465805471124643</v>
+      </c>
+      <c r="AX14">
+        <f t="shared" si="16"/>
+        <v>13.178571428571452</v>
+      </c>
+      <c r="AY14">
+        <f t="shared" si="16"/>
+        <v>12.891337386018261</v>
+      </c>
+      <c r="AZ14">
+        <f t="shared" si="16"/>
+        <v>12.60410334346507</v>
+      </c>
+      <c r="BA14">
+        <f t="shared" si="16"/>
+        <v>12.316869300911879</v>
+      </c>
+      <c r="BB14">
+        <f t="shared" si="16"/>
+        <v>12.029635258358688</v>
+      </c>
+      <c r="BC14">
+        <f t="shared" si="16"/>
+        <v>11.742401215805497</v>
+      </c>
+      <c r="BD14">
+        <f t="shared" si="16"/>
+        <v>11.455167173252306</v>
+      </c>
+      <c r="BE14">
+        <f t="shared" si="16"/>
+        <v>11.167933130699115</v>
+      </c>
+      <c r="BF14">
+        <f t="shared" si="16"/>
+        <v>10.880699088145924</v>
+      </c>
+      <c r="BG14">
+        <f t="shared" si="16"/>
+        <v>10.593465045592733</v>
+      </c>
+      <c r="BH14">
+        <f t="shared" si="16"/>
+        <v>10.306231003039542</v>
+      </c>
+      <c r="BI14">
+        <f t="shared" si="16"/>
+        <v>10.018996960486351</v>
+      </c>
+      <c r="BJ14">
+        <f t="shared" si="16"/>
+        <v>9.7317629179331604</v>
+      </c>
+      <c r="BK14">
+        <f t="shared" si="16"/>
+        <v>9.4445288753799694</v>
+      </c>
+      <c r="BL14">
+        <f t="shared" si="16"/>
+        <v>9.1572948328267785</v>
+      </c>
+      <c r="BM14">
+        <f t="shared" si="16"/>
+        <v>8.8700607902735875</v>
+      </c>
+      <c r="BN14">
+        <f t="shared" si="16"/>
+        <v>8.5828267477203966</v>
+      </c>
+      <c r="BO14">
+        <f t="shared" si="16"/>
+        <v>8.2955927051672056</v>
+      </c>
+      <c r="BP14">
+        <f t="shared" si="16"/>
+        <v>8.0083586626140146</v>
+      </c>
+      <c r="BQ14">
+        <f t="shared" si="16"/>
+        <v>7.7211246200608228</v>
+      </c>
+      <c r="BR14">
+        <f t="shared" si="16"/>
+        <v>7.4338905775076309</v>
+      </c>
+      <c r="BS14">
+        <f t="shared" si="16"/>
+        <v>7.1466565349544391</v>
+      </c>
+      <c r="BT14">
+        <f t="shared" si="16"/>
+        <v>6.8594224924012472</v>
+      </c>
+      <c r="BU14">
+        <f t="shared" si="16"/>
+        <v>6.5721884498480554</v>
+      </c>
+      <c r="BV14">
+        <f t="shared" si="16"/>
+        <v>6.2849544072948635</v>
+      </c>
+      <c r="BW14">
+        <f t="shared" si="16"/>
+        <v>5.9977203647416717</v>
+      </c>
+      <c r="BX14">
+        <f t="shared" si="16"/>
+        <v>5.7104863221884798</v>
+      </c>
+      <c r="BY14">
+        <f t="shared" si="16"/>
+        <v>5.423252279635288</v>
+      </c>
+      <c r="BZ14">
+        <f t="shared" si="16"/>
+        <v>5.1360182370820961</v>
+      </c>
+      <c r="CA14">
+        <f t="shared" si="16"/>
+        <v>4.8487841945289043</v>
+      </c>
+      <c r="CB14">
+        <f t="shared" si="16"/>
+        <v>4.5615501519757125</v>
+      </c>
+      <c r="CC14">
+        <f t="shared" ref="CC14:CR14" si="17" xml:space="preserve"> CB14 - (27 / 94)</f>
+        <v>4.2743161094225206</v>
+      </c>
+      <c r="CD14">
+        <f t="shared" si="17"/>
+        <v>3.9870820668693292</v>
+      </c>
+      <c r="CE14">
+        <f t="shared" si="17"/>
+        <v>3.6998480243161378</v>
+      </c>
+      <c r="CF14">
+        <f t="shared" si="17"/>
+        <v>3.4126139817629464</v>
+      </c>
+      <c r="CG14">
+        <f t="shared" si="17"/>
+        <v>3.125379939209755</v>
+      </c>
+      <c r="CH14">
+        <f t="shared" si="17"/>
+        <v>2.8381458966565636</v>
+      </c>
+      <c r="CI14">
+        <f t="shared" si="17"/>
+        <v>2.5509118541033722</v>
+      </c>
+      <c r="CJ14">
+        <f t="shared" si="17"/>
+        <v>2.2636778115501808</v>
+      </c>
+      <c r="CK14">
+        <f t="shared" si="17"/>
+        <v>1.9764437689969894</v>
+      </c>
+      <c r="CL14">
+        <f t="shared" si="17"/>
+        <v>1.689209726443798</v>
+      </c>
+      <c r="CM14">
+        <f t="shared" si="17"/>
+        <v>1.4019756838906066</v>
+      </c>
+      <c r="CN14">
+        <f t="shared" si="17"/>
+        <v>1.1147416413374152</v>
+      </c>
+      <c r="CO14">
+        <f t="shared" si="17"/>
+        <v>0.82750759878422364</v>
+      </c>
+      <c r="CP14">
+        <f t="shared" si="17"/>
+        <v>0.54027355623103213</v>
+      </c>
+      <c r="CQ14">
+        <f t="shared" si="17"/>
+        <v>0.25303951367784061</v>
+      </c>
+      <c r="CR14">
+        <f t="shared" si="17"/>
+        <v>-3.4194528875350905E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f>B5 - (82 / 94)</f>
+        <v>81.127659574468083</v>
+      </c>
+      <c r="D15">
+        <f xml:space="preserve"> C15 - (82 / 94)</f>
+        <v>80.255319148936167</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:P15" si="18" xml:space="preserve"> D15 - (82 / 94)</f>
+        <v>79.38297872340425</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="18"/>
+        <v>78.510638297872333</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="18"/>
+        <v>77.638297872340416</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="18"/>
+        <v>76.7659574468085</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="18"/>
+        <v>75.893617021276583</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="18"/>
+        <v>75.021276595744666</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="18"/>
+        <v>74.14893617021275</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="18"/>
+        <v>73.276595744680833</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="18"/>
+        <v>72.404255319148916</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="18"/>
+        <v>71.531914893617</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="18"/>
+        <v>70.659574468085083</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="18"/>
+        <v>69.787234042553166</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" ref="Q15:CB15" si="19" xml:space="preserve"> P15 - (82 / 94)</f>
+        <v>68.914893617021249</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="19"/>
+        <v>68.042553191489333</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="19"/>
+        <v>67.170212765957416</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="19"/>
+        <v>66.297872340425499</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="19"/>
+        <v>65.425531914893583</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="19"/>
+        <v>64.553191489361666</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="19"/>
+        <v>63.680851063829749</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="19"/>
+        <v>62.808510638297832</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="19"/>
+        <v>61.936170212765916</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="19"/>
+        <v>61.063829787233999</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="19"/>
+        <v>60.191489361702082</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="19"/>
+        <v>59.319148936170166</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="19"/>
+        <v>58.446808510638249</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="19"/>
+        <v>57.574468085106332</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="19"/>
+        <v>56.702127659574415</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="19"/>
+        <v>55.829787234042499</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="19"/>
+        <v>54.957446808510582</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="19"/>
+        <v>54.085106382978665</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="19"/>
+        <v>53.212765957446749</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="19"/>
+        <v>52.340425531914832</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="19"/>
+        <v>51.468085106382915</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="19"/>
+        <v>50.595744680850999</v>
+      </c>
+      <c r="AM15">
+        <f t="shared" si="19"/>
+        <v>49.723404255319082</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="19"/>
+        <v>48.851063829787165</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="19"/>
+        <v>47.978723404255248</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="19"/>
+        <v>47.106382978723332</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="19"/>
+        <v>46.234042553191415</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="19"/>
+        <v>45.361702127659498</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="19"/>
+        <v>44.489361702127582</v>
+      </c>
+      <c r="AT15">
+        <f t="shared" si="19"/>
+        <v>43.617021276595665</v>
+      </c>
+      <c r="AU15">
+        <f t="shared" si="19"/>
+        <v>42.744680851063748</v>
+      </c>
+      <c r="AV15">
+        <f t="shared" si="19"/>
+        <v>41.872340425531831</v>
+      </c>
+      <c r="AW15">
+        <f t="shared" si="19"/>
+        <v>40.999999999999915</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="19"/>
+        <v>40.127659574467998</v>
+      </c>
+      <c r="AY15">
+        <f t="shared" si="19"/>
+        <v>39.255319148936081</v>
+      </c>
+      <c r="AZ15">
+        <f t="shared" si="19"/>
+        <v>38.382978723404165</v>
+      </c>
+      <c r="BA15">
+        <f t="shared" si="19"/>
+        <v>37.510638297872248</v>
+      </c>
+      <c r="BB15">
+        <f t="shared" si="19"/>
+        <v>36.638297872340331</v>
+      </c>
+      <c r="BC15">
+        <f t="shared" si="19"/>
+        <v>35.765957446808414</v>
+      </c>
+      <c r="BD15">
+        <f t="shared" si="19"/>
+        <v>34.893617021276498</v>
+      </c>
+      <c r="BE15">
+        <f t="shared" si="19"/>
+        <v>34.021276595744581</v>
+      </c>
+      <c r="BF15">
+        <f t="shared" si="19"/>
+        <v>33.148936170212664</v>
+      </c>
+      <c r="BG15">
+        <f t="shared" si="19"/>
+        <v>32.276595744680748</v>
+      </c>
+      <c r="BH15">
+        <f t="shared" si="19"/>
+        <v>31.404255319148831</v>
+      </c>
+      <c r="BI15">
+        <f t="shared" si="19"/>
+        <v>30.531914893616914</v>
+      </c>
+      <c r="BJ15">
+        <f t="shared" si="19"/>
+        <v>29.659574468084998</v>
+      </c>
+      <c r="BK15">
+        <f t="shared" si="19"/>
+        <v>28.787234042553081</v>
+      </c>
+      <c r="BL15">
+        <f t="shared" si="19"/>
+        <v>27.914893617021164</v>
+      </c>
+      <c r="BM15">
+        <f t="shared" si="19"/>
+        <v>27.042553191489247</v>
+      </c>
+      <c r="BN15">
+        <f t="shared" si="19"/>
+        <v>26.170212765957331</v>
+      </c>
+      <c r="BO15">
+        <f t="shared" si="19"/>
+        <v>25.297872340425414</v>
+      </c>
+      <c r="BP15">
+        <f t="shared" si="19"/>
+        <v>24.425531914893497</v>
+      </c>
+      <c r="BQ15">
+        <f t="shared" si="19"/>
+        <v>23.553191489361581</v>
+      </c>
+      <c r="BR15">
+        <f t="shared" si="19"/>
+        <v>22.680851063829664</v>
+      </c>
+      <c r="BS15">
+        <f t="shared" si="19"/>
+        <v>21.808510638297747</v>
+      </c>
+      <c r="BT15">
+        <f t="shared" si="19"/>
+        <v>20.93617021276583</v>
+      </c>
+      <c r="BU15">
+        <f t="shared" si="19"/>
+        <v>20.063829787233914</v>
+      </c>
+      <c r="BV15">
+        <f t="shared" si="19"/>
+        <v>19.191489361701997</v>
+      </c>
+      <c r="BW15">
+        <f t="shared" si="19"/>
+        <v>18.31914893617008</v>
+      </c>
+      <c r="BX15">
+        <f t="shared" si="19"/>
+        <v>17.446808510638164</v>
+      </c>
+      <c r="BY15">
+        <f t="shared" si="19"/>
+        <v>16.574468085106247</v>
+      </c>
+      <c r="BZ15">
+        <f t="shared" si="19"/>
+        <v>15.702127659574332</v>
+      </c>
+      <c r="CA15">
+        <f t="shared" si="19"/>
+        <v>14.829787234042417</v>
+      </c>
+      <c r="CB15">
+        <f t="shared" si="19"/>
+        <v>13.957446808510502</v>
+      </c>
+      <c r="CC15">
+        <f t="shared" ref="CC15:CR15" si="20" xml:space="preserve"> CB15 - (82 / 94)</f>
+        <v>13.085106382978587</v>
+      </c>
+      <c r="CD15">
+        <f t="shared" si="20"/>
+        <v>12.212765957446672</v>
+      </c>
+      <c r="CE15">
+        <f t="shared" si="20"/>
+        <v>11.340425531914757</v>
+      </c>
+      <c r="CF15">
+        <f t="shared" si="20"/>
+        <v>10.468085106382842</v>
+      </c>
+      <c r="CG15">
+        <f t="shared" si="20"/>
+        <v>9.5957446808509275</v>
+      </c>
+      <c r="CH15">
+        <f t="shared" si="20"/>
+        <v>8.7234042553190125</v>
+      </c>
+      <c r="CI15">
+        <f t="shared" si="20"/>
+        <v>7.8510638297870976</v>
+      </c>
+      <c r="CJ15">
+        <f t="shared" si="20"/>
+        <v>6.9787234042551827</v>
+      </c>
+      <c r="CK15">
+        <f t="shared" si="20"/>
+        <v>6.1063829787232677</v>
+      </c>
+      <c r="CL15">
+        <f t="shared" si="20"/>
+        <v>5.2340425531913528</v>
+      </c>
+      <c r="CM15">
+        <f t="shared" si="20"/>
+        <v>4.3617021276594379</v>
+      </c>
+      <c r="CN15">
+        <f t="shared" si="20"/>
+        <v>3.4893617021275229</v>
+      </c>
+      <c r="CO15">
+        <f t="shared" si="20"/>
+        <v>2.617021276595608</v>
+      </c>
+      <c r="CP15">
+        <f t="shared" si="20"/>
+        <v>1.7446808510636931</v>
+      </c>
+      <c r="CQ15">
+        <f t="shared" si="20"/>
+        <v>0.87234042553177815</v>
+      </c>
+      <c r="CR15">
+        <f t="shared" si="20"/>
+        <v>-1.3677947663381929E-13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f>B6 - (10 / 94)</f>
+        <v>9.8936170212765955</v>
+      </c>
+      <c r="D16">
+        <f xml:space="preserve"> C16 - (10 / 94)</f>
+        <v>9.787234042553191</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16:P16" si="21" xml:space="preserve"> D16 - (10 / 94)</f>
+        <v>9.6808510638297864</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="21"/>
+        <v>9.5744680851063819</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="21"/>
+        <v>9.4680851063829774</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="21"/>
+        <v>9.3617021276595729</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="21"/>
+        <v>9.2553191489361684</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="21"/>
+        <v>9.1489361702127638</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="21"/>
+        <v>9.0425531914893593</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="21"/>
+        <v>8.9361702127659548</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="21"/>
+        <v>8.8297872340425503</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="21"/>
+        <v>8.7234042553191458</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="21"/>
+        <v>8.6170212765957412</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="21"/>
+        <v>8.5106382978723367</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" ref="Q16:CB16" si="22" xml:space="preserve"> P16 - (10 / 94)</f>
+        <v>8.4042553191489322</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="22"/>
+        <v>8.2978723404255277</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="22"/>
+        <v>8.1914893617021232</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="22"/>
+        <v>8.0851063829787186</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="22"/>
+        <v>7.9787234042553141</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="22"/>
+        <v>7.8723404255319096</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="22"/>
+        <v>7.7659574468085051</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="22"/>
+        <v>7.6595744680851006</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="22"/>
+        <v>7.553191489361696</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="22"/>
+        <v>7.4468085106382915</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="22"/>
+        <v>7.340425531914887</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="22"/>
+        <v>7.2340425531914825</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="22"/>
+        <v>7.127659574468078</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="22"/>
+        <v>7.0212765957446734</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="22"/>
+        <v>6.9148936170212689</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="22"/>
+        <v>6.8085106382978644</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="22"/>
+        <v>6.7021276595744599</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="22"/>
+        <v>6.5957446808510554</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="22"/>
+        <v>6.4893617021276508</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="22"/>
+        <v>6.3829787234042463</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="22"/>
+        <v>6.2765957446808418</v>
+      </c>
+      <c r="AL16">
+        <f t="shared" si="22"/>
+        <v>6.1702127659574373</v>
+      </c>
+      <c r="AM16">
+        <f t="shared" si="22"/>
+        <v>6.0638297872340328</v>
+      </c>
+      <c r="AN16">
+        <f t="shared" si="22"/>
+        <v>5.9574468085106282</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" si="22"/>
+        <v>5.8510638297872237</v>
+      </c>
+      <c r="AP16">
+        <f t="shared" si="22"/>
+        <v>5.7446808510638192</v>
+      </c>
+      <c r="AQ16">
+        <f t="shared" si="22"/>
+        <v>5.6382978723404147</v>
+      </c>
+      <c r="AR16">
+        <f t="shared" si="22"/>
+        <v>5.5319148936170102</v>
+      </c>
+      <c r="AS16">
+        <f t="shared" si="22"/>
+        <v>5.4255319148936056</v>
+      </c>
+      <c r="AT16">
+        <f t="shared" si="22"/>
+        <v>5.3191489361702011</v>
+      </c>
+      <c r="AU16">
+        <f t="shared" si="22"/>
+        <v>5.2127659574467966</v>
+      </c>
+      <c r="AV16">
+        <f t="shared" si="22"/>
+        <v>5.1063829787233921</v>
+      </c>
+      <c r="AW16">
+        <f t="shared" si="22"/>
+        <v>4.9999999999999876</v>
+      </c>
+      <c r="AX16">
+        <f t="shared" si="22"/>
+        <v>4.893617021276583</v>
+      </c>
+      <c r="AY16">
+        <f t="shared" si="22"/>
+        <v>4.7872340425531785</v>
+      </c>
+      <c r="AZ16">
+        <f t="shared" si="22"/>
+        <v>4.680851063829774</v>
+      </c>
+      <c r="BA16">
+        <f t="shared" si="22"/>
+        <v>4.5744680851063695</v>
+      </c>
+      <c r="BB16">
+        <f t="shared" si="22"/>
+        <v>4.468085106382965</v>
+      </c>
+      <c r="BC16">
+        <f t="shared" si="22"/>
+        <v>4.3617021276595604</v>
+      </c>
+      <c r="BD16">
+        <f t="shared" si="22"/>
+        <v>4.2553191489361559</v>
+      </c>
+      <c r="BE16">
+        <f t="shared" si="22"/>
+        <v>4.1489361702127514</v>
+      </c>
+      <c r="BF16">
+        <f t="shared" si="22"/>
+        <v>4.0425531914893469</v>
+      </c>
+      <c r="BG16">
+        <f t="shared" si="22"/>
+        <v>3.9361702127659428</v>
+      </c>
+      <c r="BH16">
+        <f t="shared" si="22"/>
+        <v>3.8297872340425387</v>
+      </c>
+      <c r="BI16">
+        <f t="shared" si="22"/>
+        <v>3.7234042553191347</v>
+      </c>
+      <c r="BJ16">
+        <f t="shared" si="22"/>
+        <v>3.6170212765957306</v>
+      </c>
+      <c r="BK16">
+        <f t="shared" si="22"/>
+        <v>3.5106382978723265</v>
+      </c>
+      <c r="BL16">
+        <f t="shared" si="22"/>
+        <v>3.4042553191489224</v>
+      </c>
+      <c r="BM16">
+        <f t="shared" si="22"/>
+        <v>3.2978723404255184</v>
+      </c>
+      <c r="BN16">
+        <f t="shared" si="22"/>
+        <v>3.1914893617021143</v>
+      </c>
+      <c r="BO16">
+        <f t="shared" si="22"/>
+        <v>3.0851063829787102</v>
+      </c>
+      <c r="BP16">
+        <f t="shared" si="22"/>
+        <v>2.9787234042553061</v>
+      </c>
+      <c r="BQ16">
+        <f t="shared" si="22"/>
+        <v>2.8723404255319021</v>
+      </c>
+      <c r="BR16">
+        <f t="shared" si="22"/>
+        <v>2.765957446808498</v>
+      </c>
+      <c r="BS16">
+        <f t="shared" si="22"/>
+        <v>2.6595744680850939</v>
+      </c>
+      <c r="BT16">
+        <f t="shared" si="22"/>
+        <v>2.5531914893616898</v>
+      </c>
+      <c r="BU16">
+        <f t="shared" si="22"/>
+        <v>2.4468085106382857</v>
+      </c>
+      <c r="BV16">
+        <f t="shared" si="22"/>
+        <v>2.3404255319148817</v>
+      </c>
+      <c r="BW16">
+        <f t="shared" si="22"/>
+        <v>2.2340425531914776</v>
+      </c>
+      <c r="BX16">
+        <f t="shared" si="22"/>
+        <v>2.1276595744680735</v>
+      </c>
+      <c r="BY16">
+        <f t="shared" si="22"/>
+        <v>2.0212765957446694</v>
+      </c>
+      <c r="BZ16">
+        <f t="shared" si="22"/>
+        <v>1.9148936170212651</v>
+      </c>
+      <c r="CA16">
+        <f t="shared" si="22"/>
+        <v>1.8085106382978609</v>
+      </c>
+      <c r="CB16">
+        <f t="shared" si="22"/>
+        <v>1.7021276595744566</v>
+      </c>
+      <c r="CC16">
+        <f t="shared" ref="CC16:CR16" si="23" xml:space="preserve"> CB16 - (10 / 94)</f>
+        <v>1.5957446808510523</v>
+      </c>
+      <c r="CD16">
+        <f t="shared" si="23"/>
+        <v>1.489361702127648</v>
+      </c>
+      <c r="CE16">
+        <f t="shared" si="23"/>
+        <v>1.3829787234042437</v>
+      </c>
+      <c r="CF16">
+        <f t="shared" si="23"/>
+        <v>1.2765957446808394</v>
+      </c>
+      <c r="CG16">
+        <f t="shared" si="23"/>
+        <v>1.1702127659574351</v>
+      </c>
+      <c r="CH16">
+        <f t="shared" si="23"/>
+        <v>1.0638297872340308</v>
+      </c>
+      <c r="CI16">
+        <f t="shared" si="23"/>
+        <v>0.95744680851062647</v>
+      </c>
+      <c r="CJ16">
+        <f t="shared" si="23"/>
+        <v>0.85106382978722217</v>
+      </c>
+      <c r="CK16">
+        <f t="shared" si="23"/>
+        <v>0.74468085106381787</v>
+      </c>
+      <c r="CL16">
+        <f t="shared" si="23"/>
+        <v>0.63829787234041357</v>
+      </c>
+      <c r="CM16">
+        <f t="shared" si="23"/>
+        <v>0.53191489361700928</v>
+      </c>
+      <c r="CN16">
+        <f t="shared" si="23"/>
+        <v>0.42553191489360503</v>
+      </c>
+      <c r="CO16">
+        <f t="shared" si="23"/>
+        <v>0.31914893617020079</v>
+      </c>
+      <c r="CP16">
+        <f t="shared" si="23"/>
+        <v>0.21276595744679655</v>
+      </c>
+      <c r="CQ16">
+        <f t="shared" si="23"/>
+        <v>0.10638297872339229</v>
+      </c>
+      <c r="CR16">
+        <f t="shared" si="23"/>
+        <v>-1.1962653090336062E-14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
